--- a/Algoritmo_Rota/Planilhas/BFS/PLN_13_5.xlsx
+++ b/Algoritmo_Rota/Planilhas/BFS/PLN_13_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1930</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>1930</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1930</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.009171517690022786</v>
+        <v>1053</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9, 3, 1, 6, 11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 11 -&gt; 1 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3 -&gt; 6 -&gt; 9 -&gt; 8 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01194047927856445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1502</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1502</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1502</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.009282541275024415</v>
+        <v>872</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2, 1, 6, 7, 3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6 -&gt; 6 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6 -&gt; 5 -&gt; 4 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.011383056640625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>1632</v>
-      </c>
       <c r="C4" t="n">
-        <v>1632</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1632</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01076998710632324</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2168</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2168</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2168</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.01071370442708333</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1547</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1547</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1547</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01079142888387044</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1501</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1501</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1501</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.01087356408437093</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1917</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1917</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1917</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.01085854371388753</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1205</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1205</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1205</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.009370962778727213</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1780</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1780</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1780</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.01091585159301758</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2139</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2139</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2139</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.01083208719889323</v>
+        <v>1040</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8, 13, 5, 11, 4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2 -&gt; 5 -&gt; 8 -&gt; 13 -&gt; 11 -&gt; 4 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2 -&gt; 5 -&gt; 8 -&gt; 9 -&gt; 13 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01374030113220215</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/BFS/PLN_13_5.xlsx
+++ b/Algoritmo_Rota/Planilhas/BFS/PLN_13_5.xlsx
@@ -14,21 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Índice</t>
   </si>
   <si>
+    <t>inicio</t>
+  </si>
+  <si>
     <t>Distancia</t>
   </si>
   <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
+    <t>ativos</t>
+  </si>
+  <si>
+    <t>melhor rota</t>
+  </si>
+  <si>
+    <t>caminho</t>
   </si>
   <si>
     <t>Tempo</t>
+  </si>
+  <si>
+    <t>Tempo Heuristica</t>
+  </si>
+  <si>
+    <t>Tempo Total</t>
+  </si>
+  <si>
+    <t>9, 3, 1, 6, 11</t>
+  </si>
+  <si>
+    <t>3 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 11 -&gt; 1 -&gt; 3</t>
+  </si>
+  <si>
+    <t>3 -&gt; 6 -&gt; 9 -&gt; 8 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3</t>
+  </si>
+  <si>
+    <t>2, 1, 6, 7, 3</t>
+  </si>
+  <si>
+    <t>6 -&gt; 6 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6</t>
+  </si>
+  <si>
+    <t>6 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6</t>
+  </si>
+  <si>
+    <t>8, 13, 5, 11, 4</t>
+  </si>
+  <si>
+    <t>2 -&gt; 5 -&gt; 8 -&gt; 13 -&gt; 11 -&gt; 4 -&gt; 2</t>
+  </si>
+  <si>
+    <t>2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 13 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2</t>
   </si>
 </sst>
 </file>
@@ -78,11 +117,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -94,6 +136,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -400,17 +445,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -423,181 +472,110 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1057</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1057</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1057</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.010121417045593</v>
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1053</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.01160120964050293</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.011601209640503</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1040</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1040</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1040</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.01020737489064535</v>
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>867</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.01093006134033203</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.01093006134033203</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>973</v>
-      </c>
-      <c r="C4" s="3">
-        <v>973</v>
-      </c>
-      <c r="D4" s="3">
-        <v>973</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.01200356483459473</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1224</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1224</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1224</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.01196500460306803</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>883</v>
-      </c>
-      <c r="C6" s="3">
-        <v>883</v>
-      </c>
-      <c r="D6" s="3">
-        <v>883</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.01186857223510742</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1040</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1040</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1040</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.01197107632954915</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1053</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1053</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1053</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.01498770713806152</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>957</v>
-      </c>
-      <c r="C9" s="3">
-        <v>957</v>
-      </c>
-      <c r="D9" s="3">
-        <v>957</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.01367270946502686</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>886</v>
-      </c>
-      <c r="C10" s="3">
-        <v>886</v>
-      </c>
-      <c r="D10" s="3">
-        <v>886</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.01604111989339193</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1049</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1049</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1049</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.01595612366994222</v>
+      <c r="C4" s="4">
+        <v>1038</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.01306653022766113</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.01306653022766113</v>
       </c>
     </row>
   </sheetData>
